--- a/medicine/Psychotrope/Abondant_(cépage)/Abondant_(cépage).xlsx
+++ b/medicine/Psychotrope/Abondant_(cépage)/Abondant_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’abondant est un cépage blanc d'origine française.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient d'un semis de Sylvaner (selon Truel) obtenu par le lorrain Alexandre Wanner. Il est autorisé à la culture dans les départements de Moselle, Bas-Rhin et Haut-Rhin.
-Sa culture n'est plus qu'anecdotique dans le nord-est de la France. Il est passé de 21 ha en 1958 à 1 ha en 1994[1].
+Sa culture n'est plus qu'anecdotique dans le nord-est de la France. Il est passé de 21 ha en 1958 à 1 ha en 1994.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau à forte densité de poils couchés.
 Jeunes feuilles de couleur vertes.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage débourre trois jours avant le Chasselas B et sa maturité est de deuxième époque : 2 semaines et demie après le Chasselas B.
 C'est un cépage vigoureux, fertile même en taille courte. Son débourrement précoce l'expose aux gelées printanières. Il est sensible à la pourriture grise.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont grosses. Il donne des vins peu alcooliques et plats.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abondant_(c%C3%A9page)</t>
+          <t>Abondant_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Abondant est aussi connu sous le nom de Wanner.
 </t>
